--- a/data/Simulation_CBC.xlsx
+++ b/data/Simulation_CBC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judithrichter/Desktop/Bachelorarbeit/Daten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judithrichter/Desktop/bachelor/Conjoint-Analysis-2024/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B238B99-BCCA-8242-8D00-620165E2B30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D56A22A-C351-FB4B-ABD0-C4CF464695D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{993712B0-C7A0-6A47-97E0-ED0C0F547DCA}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="32">
   <si>
     <t>Coastal region</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>DestinationCoastalRegion</t>
-  </si>
-  <si>
-    <t>Urban Region</t>
   </si>
   <si>
     <t>Transportation</t>
@@ -568,34 +565,34 @@
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -606,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -738,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -870,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1002,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1222,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1354,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1486,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1618,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1706,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1838,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -2058,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -2146,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -2278,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -2410,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -2498,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -2630,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -2762,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -2894,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -2982,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -3114,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -3246,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -3334,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -3554,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -3686,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
@@ -3800,34 +3797,34 @@
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3838,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -4014,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -4115,13 +4112,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>12</v>
@@ -4136,34 +4133,34 @@
         <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -4183,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="5">
         <v>0</v>
@@ -4236,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
@@ -4263,7 +4260,7 @@
         <v>-1</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="6">
         <v>-1</v>
@@ -4307,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="5">
         <v>0</v>
@@ -4342,7 +4339,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -4360,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" s="5">
         <v>0</v>
@@ -4395,7 +4392,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -4413,7 +4410,7 @@
         <v>-1</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" s="5">
         <v>0</v>
@@ -4422,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P6" s="6">
         <v>-1</v>
@@ -4448,7 +4445,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -4501,7 +4498,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -4528,7 +4525,7 @@
         <v>-1</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P8" s="6">
         <v>-1</v>
@@ -4554,7 +4551,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -4572,7 +4569,7 @@
         <v>-1</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9" s="5">
         <v>0</v>
@@ -4581,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P9" s="6">
         <v>-1</v>
@@ -4607,7 +4604,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -4625,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" s="5">
         <v>0</v>
@@ -4660,7 +4657,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -4713,7 +4710,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
@@ -4784,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -4819,7 +4816,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -4899,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P15" s="6">
         <v>-1</v>
@@ -4978,7 +4975,7 @@
         <v>8</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
@@ -5058,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P18" s="6">
         <v>-1</v>
